--- a/LX_API_TEST/Data/Case_data.xlsx
+++ b/LX_API_TEST/Data/Case_data.xlsx
@@ -1,22 +1,724 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24225" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Game" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test_Web" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="Game" sheetId="2" r:id="rId2"/>
+    <sheet name="Activity" sheetId="3" r:id="rId3"/>
+    <sheet name="Finance" sheetId="4" r:id="rId4"/>
+    <sheet name="Test_Web" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>d-01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+运行脚本文件名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+前置条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+是否需要登录</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+描述信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+预期结果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例关联接口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+是否执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+实际结果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>d-01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+运行脚本文件名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+前置条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+是否需要登录</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+描述信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+预期结果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例关联接口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+是否执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+实际结果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>d-01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+运行脚本文件名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+前置条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+是否需要登录</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+描述信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+预期结果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例关联接口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+是否执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+实际结果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>d-01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+运行脚本文件名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+前置条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+是否需要登录</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+描述信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+预期结果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例关联接口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+是否执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+实际结果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>d-01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例编号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+运行脚本文件名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+前置条件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+是否需要登录</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+描述信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+预期结果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+用例关联接口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+是否执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>d-01:
+实际结果</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="215">
   <si>
     <t>ID</t>
   </si>
@@ -115,6 +817,9 @@
   </si>
   <si>
     <t>密码相关-否设置过资金密码</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>A004</t>
@@ -235,6 +940,45 @@
     <t>{"Status": false,"Info":"请输入登录账号"}</t>
   </si>
   <si>
+    <t>A011</t>
+  </si>
+  <si>
+    <t>后台相关-用户登录</t>
+  </si>
+  <si>
+    <t>Api_AG_User_Login_Case.py</t>
+  </si>
+  <si>
+    <t>后台账户登录</t>
+  </si>
+  <si>
+    <t>{"password":"8196658ecaeceb870d0ad3053dd579d2","googlecode":"","username":"qazwsx2","validateCode":"","accountfid":""}</t>
+  </si>
+  <si>
+    <t>"后台管理系统"</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>A012</t>
+  </si>
+  <si>
+    <t>后台相关-添加账户</t>
+  </si>
+  <si>
+    <t>Ag_Api_User_AddAccount_Case.py</t>
+  </si>
+  <si>
+    <t>后台添加账户</t>
+  </si>
+  <si>
+    <t>{"accountName":"ttt1","password":"aaaa1111"}</t>
+  </si>
+  <si>
+    <t>{"status": true,"info":"新增成功"}</t>
+  </si>
+  <si>
     <t>B001</t>
   </si>
   <si>
@@ -265,7 +1009,7 @@
     <t>Api_Game_GetGamePlayData_Case.py</t>
   </si>
   <si>
-    <t>{"GameID":578}</t>
+    <t>{"GameID":63}</t>
   </si>
   <si>
     <t>{"Code": 0,"Status": true}</t>
@@ -343,10 +1087,241 @@
     <t>游戏相关-六合彩下注</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>获取活动列表</t>
+  </si>
+  <si>
+    <t>Api_Activity_GetActivityList_Case.py</t>
+  </si>
+  <si>
+    <t>{"Status":true,"Info":"","Code":0}</t>
+  </si>
+  <si>
+    <t>活动相关-获取活动列表</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>查询是否有活动</t>
+  </si>
+  <si>
+    <t>Api_Activity_HasActivity_Case.py</t>
+  </si>
+  <si>
+    <t>{"Status":true,"Info":"查询成功","Code":0}</t>
+  </si>
+  <si>
+    <t>活动相关-查询是否有活动</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>查询用户已参加活动</t>
+  </si>
+  <si>
+    <t>Api_Activity_GetUserJoinActivityInfo_Case.py</t>
+  </si>
+  <si>
+    <t>{"EndTime":"2020-07-14 02:00:00","PageSize":20,"StartTime":"2020-07-13 02:00:00","PageIndex":1}</t>
+  </si>
+  <si>
+    <t>活动相关-查询用户已参加活动</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>参加活动</t>
+  </si>
+  <si>
+    <t>Api_Activiy_AddActity_Case.py</t>
+  </si>
+  <si>
+    <t>{"ActityID":4330}</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>充值导航-可用导航通道</t>
+  </si>
+  <si>
+    <t>Api_Finance_PaymentIndex_Case.py</t>
+  </si>
+  <si>
+    <t>获取充值导航通道</t>
+  </si>
+  <si>
+    <t>充值提现-充值导航</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>获取可用支付通道</t>
+  </si>
+  <si>
+    <t>Api_Finance_GetPaymentProvider_Case.py</t>
+  </si>
+  <si>
+    <t>获取导航通道下可用支付通道</t>
+  </si>
+  <si>
+    <t>{"id":9,"isonline":-1}</t>
+  </si>
+  <si>
+    <t>充值提现-获取可用支付通道</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>获取用户常用支付通道</t>
+  </si>
+  <si>
+    <t>Api_Finance_GetRecentlyUsedPayment_Case.py</t>
+  </si>
+  <si>
+    <t>充值提现-获取用户常用支付通道</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>检查通道是否首次充值</t>
+  </si>
+  <si>
+    <t>Api-Finance_CheckIsFirstRecharge_Case.py</t>
+  </si>
+  <si>
+    <t>{"id":2,"isonline":1,"_":1596470495046}</t>
+  </si>
+  <si>
+    <t>充值提现-检查通道是否首次充值</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>获取支付商优惠设置-线上</t>
+  </si>
+  <si>
+    <t>Api_Finance_GetPreferenceNewConfig_Case.py</t>
+  </si>
+  <si>
+    <t>{"Type":2,"CashConfigId":1127,"_":1596476675829}</t>
+  </si>
+  <si>
+    <t>充值提现-获取支付商优惠设置</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>获取支付商优惠设置-线下</t>
+  </si>
+  <si>
+    <t>{"Type":1,"CashConfigId":1127,"_":1596476675829}</t>
+  </si>
+  <si>
+    <t>D007</t>
+  </si>
+  <si>
+    <t>检测充值金额</t>
+  </si>
+  <si>
+    <t>Api_Finance_CheckAmount_Case.py</t>
+  </si>
+  <si>
+    <t>{"Amount":-1}</t>
+  </si>
+  <si>
+    <t>{"Status":true,"Info":"验证成功","Code":0}</t>
+  </si>
+  <si>
+    <t>充值提现-检测充值金额</t>
+  </si>
+  <si>
+    <t>D008</t>
+  </si>
+  <si>
+    <t>随机线上充值</t>
+  </si>
+  <si>
+    <t>Api_Finance_GoPay_Case.py</t>
+  </si>
+  <si>
+    <t>{"LoginSessionID":"5e6ebd2c856a5bf41a653758c334e48f","paymentId":1188,"amount":100,"code":"","FIsCode":false,"wayType":1,"choicePre":true}</t>
+  </si>
+  <si>
+    <t>{"SerialNumber":"43608080142211480007","ActualAmount":17043.35}</t>
+  </si>
+  <si>
+    <t>充值提现-线上充值</t>
+  </si>
+  <si>
+    <t>D009</t>
+  </si>
+  <si>
+    <t>获取充值记录</t>
+  </si>
+  <si>
+    <t>Api_Finance_GetChargeRecord_Case.py</t>
+  </si>
+  <si>
+    <t>{"EndTime":"2020-08-08 02:00:00","OrderNum":"","PageSize":20,"StartTime":"2020-08-07 02:00:00","IsContainSub":false,"PageIndex":1,"QueryType":0,"FStatus":3,"AccountName":""}</t>
+  </si>
+  <si>
+    <t>充值提现-充值记录</t>
+  </si>
+  <si>
+    <t>D010</t>
+  </si>
+  <si>
+    <t>随机公司充值</t>
+  </si>
+  <si>
+    <t>Api_Finance_UpApply_Case.py</t>
+  </si>
+  <si>
+    <t>公司入款</t>
+  </si>
+  <si>
+    <t>{"orderNumber":"45308102348429170002","amount":1,"userBankId":44,"CompanyCardId":133860,"date":"2020/08/10 19:49:21","way":"","realName":"Qq","place":"","bankId":133860,"choicePre":true,"CardNo":"15154512784","_":1597074569436}</t>
+  </si>
+  <si>
+    <t>{"Status":true,"Info":"申请成功提交！","Code":0}</t>
+  </si>
+  <si>
+    <t>充值提现-公司充值</t>
+  </si>
+  <si>
+    <t>D011</t>
+  </si>
+  <si>
+    <t>公司充值-小于最低限额</t>
+  </si>
+  <si>
+    <t>公司入款-异常案例</t>
+  </si>
+  <si>
+    <t>{"orderNumber":"45308102348429170002","amount":2,"userBankId":44,"CompanyCardId":133860,"date":"2020/08/10 19:49:21","way":"","realName":"Qq","place":"","bankId":133860,"choicePre":true,"CardNo":"15154512784","_":1597074569436}</t>
+  </si>
+  <si>
+    <t>{"Status":false,"Code":0}</t>
+  </si>
+  <si>
+    <t>D012</t>
+  </si>
+  <si>
+    <t>公司充值-大于最高限额</t>
+  </si>
+  <si>
+    <t>{"orderNumber":"45308102348429170002","amount":3,"userBankId":44,"CompanyCardId":133860,"date":"2020/08/10 19:49:21","way":"","realName":"Qq","place":"","bankId":133860,"choicePre":true,"CardNo":"15154512784","_":1597074569436}</t>
   </si>
   <si>
     <t>F001</t>
@@ -396,188 +1371,260 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -587,7 +1634,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,61 +1676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,19 +1688,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,73 +1724,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,8 +1768,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,7 +1778,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,41 +1828,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,190 +1849,192 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1111,217 +2088,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>d-01</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-用例编号</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-用例名称</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-运行脚本文件名</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-前置条件</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-是否需要登录</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-描述信息</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-预期结果</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-用例关联接口</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-是否执行</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-实际结果</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>d-01</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-用例编号</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-用例名称</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-运行脚本文件名</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-前置条件</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-是否需要登录</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-描述信息</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-预期结果</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-用例关联接口</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-是否执行</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-实际结果</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>d-01</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-用例编号</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-用例名称</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-运行脚本文件名</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-前置条件</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-是否需要登录</t>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-描述信息</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-预期结果</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-用例关联接口</t>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-是否执行</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <t>d-01:
-实际结果</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1609,35 +2381,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col width="9" customWidth="1" style="5" min="1" max="1"/>
-    <col width="34.375" customWidth="1" style="5" min="2" max="2"/>
-    <col width="47.5" customWidth="1" style="5" min="3" max="3"/>
-    <col width="12.5" customWidth="1" style="5" min="4" max="4"/>
-    <col width="11.25" customWidth="1" style="5" min="5" max="5"/>
-    <col width="24.75" customWidth="1" style="5" min="6" max="6"/>
-    <col width="75.25" customWidth="1" style="5" min="7" max="7"/>
-    <col width="40.125" customWidth="1" style="5" min="8" max="8"/>
-    <col width="25.375" customWidth="1" style="5" min="9" max="9"/>
-    <col width="11.375" customWidth="1" style="5" min="10" max="10"/>
-    <col width="13.875" customWidth="1" style="5" min="11" max="11"/>
-    <col width="11.625" customWidth="1" style="5" min="12" max="12"/>
-    <col width="9" customWidth="1" style="5" min="13" max="16384"/>
+    <col min="1" max="1" width="9" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="75.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="40.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customFormat="1" customHeight="1" s="1">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1675,17 +2444,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" s="12">
+    <row r="2" ht="24" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1700,13 +2469,13 @@
       <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="11" t="n"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
@@ -1715,10 +2484,10 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1733,13 +2502,13 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="11" t="n"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
@@ -1751,7 +2520,7 @@
       <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1763,284 +2532,352 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="11" t="n"/>
-    </row>
-    <row r="5" spans="1:12" ht="33" customHeight="1" s="12">
-      <c r="A5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="11" t="n"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="H8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="11" t="n"/>
-    </row>
-    <row r="7" spans="1:12" ht="33" customHeight="1" s="12">
-      <c r="A7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="9" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33" customHeight="1" s="12">
-      <c r="A8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="9" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="9" t="s">
+    <row r="12" ht="33" customHeight="1" spans="1:12">
+      <c r="A12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" customFormat="1" s="5">
-      <c r="A11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>21</v>
+      <c r="F12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 J2:J11" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 J12 E13 J13 J2:J11">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation sqref="K2:K11" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K12 K13 K2:K11">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
-    <col width="8.125" customWidth="1" style="7" min="1" max="1"/>
-    <col width="35.75" customWidth="1" style="3" min="2" max="2"/>
-    <col width="39.75" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.75" customWidth="1" style="7" min="4" max="4"/>
-    <col width="11.5" customWidth="1" style="7" min="5" max="5"/>
-    <col width="22" customWidth="1" style="7" min="6" max="6"/>
-    <col width="127.625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="39.875" customWidth="1" style="7" min="8" max="8"/>
-    <col width="32.125" customWidth="1" style="7" min="9" max="9"/>
-    <col width="9.875" customWidth="1" style="7" min="10" max="10"/>
-    <col width="10.625" customWidth="1" style="7" min="11" max="11"/>
-    <col width="9" customWidth="1" style="8" min="12" max="16384"/>
+    <col min="1" max="1" width="8.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="35.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22" style="8" customWidth="1"/>
+    <col min="7" max="7" width="127.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="39.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="32.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customFormat="1" customHeight="1" s="1">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2078,242 +2915,966 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" customFormat="1" s="5">
+    <row r="2" s="5" customFormat="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" ht="15" customHeight="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="9" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="9" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="E2 E3 E4 E5 E6 E7 J7 J2:J6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 J7 J2:J6">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation sqref="K7 K2:K4 K5:K6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K7 K2:K4 K5:K6">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="68.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 E3 J3 E4 J4 E5 J5">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4 K5">
+      <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="44" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="88" style="5" customWidth="1"/>
+    <col min="8" max="8" width="52.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" ht="48" customHeight="1" spans="1:12">
+      <c r="A9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:12">
+      <c r="A10" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" ht="66" customHeight="1" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" ht="66" customHeight="1" spans="1:12">
+      <c r="A12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" ht="66" customHeight="1" spans="1:12">
+      <c r="A13" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 E3 J3 E4 J4 E5 J5 E6 J6 E7 J7 E8 J8 E9 J9 E10 J10 E11 J11 E12 J12 E13 J13">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13">
+      <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col width="9" customWidth="1" style="2" min="1" max="1"/>
-    <col width="29.125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="31.5" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13.625" customWidth="1" style="2" min="4" max="4"/>
-    <col width="12.5" customWidth="1" style="2" min="5" max="5"/>
-    <col width="14.75" customWidth="1" style="2" min="6" max="6"/>
-    <col width="83" customWidth="1" style="2" min="7" max="7"/>
-    <col width="35.25" customWidth="1" style="2" min="8" max="8"/>
-    <col width="21.625" customWidth="1" style="2" min="9" max="9"/>
-    <col width="9" customWidth="1" style="2" min="10" max="16384"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="83" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customFormat="1" customHeight="1" s="1">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2351,30 +3912,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" s="12">
+    <row r="2" ht="16.5" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>20</v>
@@ -2383,30 +3944,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="27" customHeight="1" s="12">
+    <row r="3" ht="27" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>211</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>20</v>
@@ -2417,11 +3978,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="E2 J2 K2 E3 J3 K3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 K2 E3 J3 K3">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LX_API_TEST/Data/Case_data.xlsx
+++ b/LX_API_TEST/Data/Case_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="231">
   <si>
     <t>ID</t>
   </si>
@@ -784,6 +784,9 @@
   </si>
   <si>
     <t>测试环境</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>A002</t>
@@ -958,9 +961,6 @@
     <t>"后台管理系统"</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>A012</t>
   </si>
   <si>
@@ -1322,6 +1322,54 @@
   </si>
   <si>
     <t>{"orderNumber":"45308102348429170002","amount":3,"userBankId":44,"CompanyCardId":133860,"date":"2020/08/10 19:49:21","way":"","realName":"Qq","place":"","bankId":133860,"choicePre":true,"CardNo":"15154512784","_":1597074569436}</t>
+  </si>
+  <si>
+    <t>D013</t>
+  </si>
+  <si>
+    <t>获取用户提现基础数据</t>
+  </si>
+  <si>
+    <t>Api_Finance_GetEncashment_Case.py</t>
+  </si>
+  <si>
+    <t>提现-获取基础数据</t>
+  </si>
+  <si>
+    <t>充值提现-获取提现基础数据</t>
+  </si>
+  <si>
+    <t>D014</t>
+  </si>
+  <si>
+    <t>获取用户出款稽核数据</t>
+  </si>
+  <si>
+    <t>Api_Finance_GetAuditData_Case.py</t>
+  </si>
+  <si>
+    <t>提现-获取出款稽核数据</t>
+  </si>
+  <si>
+    <t>充值提现-获取出款稽核数据</t>
+  </si>
+  <si>
+    <t>D015</t>
+  </si>
+  <si>
+    <t>前台出款申请-正常出款</t>
+  </si>
+  <si>
+    <t>Api_Finance_UpEncashmentApply_Case.py</t>
+  </si>
+  <si>
+    <t>{"Amount":"100","CardID":134026,"Password":"200820e3227815ed1756a6b531e7e0d2"}</t>
+  </si>
+  <si>
+    <t>{"Status":true,"Info":"申请提交成功！","Code":0}</t>
+  </si>
+  <si>
+    <t>充值提现-前台出款申请</t>
   </si>
   <si>
     <t>F001</t>
@@ -1398,30 +1446,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,6 +1459,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1453,35 +1487,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1496,6 +1501,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1504,9 +1516,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1520,23 +1583,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,31 +1604,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,7 +1652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,13 +1664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,7 +1682,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,103 +1778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1747,6 +1795,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1767,18 +1839,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1798,32 +1878,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1836,17 +1895,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1855,149 +1903,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2031,9 +2079,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2385,8 +2430,8 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2475,14 +2520,16 @@
       <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>14</v>
@@ -2491,13 +2538,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>19</v>
@@ -2508,62 +2555,66 @@
       <c r="K3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:12">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>20</v>
@@ -2571,32 +2622,34 @@
       <c r="K5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>20</v>
@@ -2604,32 +2657,34 @@
       <c r="K6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:11">
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>15</v>
@@ -2637,31 +2692,34 @@
       <c r="K7" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:11">
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:12">
       <c r="A8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>20</v>
@@ -2669,31 +2727,34 @@
       <c r="K8" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>20</v>
@@ -2701,63 +2762,69 @@
       <c r="K9" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:11">
-      <c r="A11" s="5" t="s">
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>20</v>
@@ -2765,40 +2832,43 @@
       <c r="K11" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:12">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2830,10 +2900,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +2928,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -2947,7 +3017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:11">
+    <row r="3" ht="15" customHeight="1" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>93</v>
       </c>
@@ -2976,7 +3046,10 @@
         <v>15</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3104,10 +3177,10 @@
         <v>20</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3204,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
@@ -3214,10 +3287,10 @@
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3246,10 +3319,10 @@
         <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:12">
@@ -3281,10 +3354,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3307,7 +3380,7 @@
         <v>140</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>138</v>
@@ -3316,10 +3389,10 @@
         <v>15</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3340,10 +3413,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3424,10 +3497,10 @@
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3453,7 +3526,7 @@
         <v>150</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>151</v>
@@ -3462,10 +3535,10 @@
         <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3485,7 +3558,7 @@
         <v>153</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>155</v>
@@ -3494,10 +3567,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3532,10 +3605,10 @@
         <v>15</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3570,10 +3643,10 @@
         <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3608,10 +3681,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3643,10 +3716,10 @@
         <v>15</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="48" customHeight="1" spans="1:12">
@@ -3681,10 +3754,10 @@
         <v>15</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:12">
@@ -3716,10 +3789,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="66" customHeight="1" spans="1:12">
@@ -3754,10 +3827,10 @@
         <v>15</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="66" customHeight="1" spans="1:12">
@@ -3792,10 +3865,10 @@
         <v>15</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:12">
@@ -3830,18 +3903,117 @@
         <v>15</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 E3 J3 E4 J4 E5 J5 E6 J6 E7 J7 E8 J8 E9 J9 E10 J10 E11 J11 E12 J12 E13 J13">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 E3 J3 E4 J4 E5 J5 E6 J6 E7 J7 E8 J8 E9 J9 E10 J10 E11 J11 E12 J12 E13 J13 E14 J14 E15 J15 E16 J16">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3856,8 +4028,8 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3914,60 +4086,60 @@
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>20</v>
@@ -3977,9 +4149,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 K2 E3 J3 K3">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 E3 J3 K3">
       <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LX_API_TEST/Data/Case_data.xlsx
+++ b/LX_API_TEST/Data/Case_data.xlsx
@@ -1,724 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24225" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" r:id="rId1"/>
-    <sheet name="Game" sheetId="2" r:id="rId2"/>
-    <sheet name="Activity" sheetId="3" r:id="rId3"/>
-    <sheet name="Finance" sheetId="4" r:id="rId4"/>
-    <sheet name="Test_Web" sheetId="5" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Game" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Activity" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Finance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test_Web" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>d-01</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例编号</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例名称</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-运行脚本文件名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-前置条件</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-是否需要登录</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-描述信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-预期结果</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例关联接口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-是否执行</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-实际结果</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>d-01</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例编号</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例名称</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-运行脚本文件名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-前置条件</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-是否需要登录</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-描述信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-预期结果</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例关联接口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-是否执行</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-实际结果</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>d-01</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例编号</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例名称</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-运行脚本文件名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-前置条件</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-是否需要登录</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-描述信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-预期结果</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例关联接口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-是否执行</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-实际结果</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>d-01</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例编号</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例名称</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-运行脚本文件名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-前置条件</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-是否需要登录</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-描述信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-预期结果</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例关联接口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-是否执行</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-实际结果</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>d-01</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例编号</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例名称</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-运行脚本文件名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-前置条件</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-是否需要登录</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-描述信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-预期结果</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-用例关联接口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-是否执行</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>d-01:
-实际结果</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t>ID</t>
   </si>
@@ -780,70 +80,70 @@
     <t>登录注册-用户登录</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>用户登录,错误用户名</t>
+  </si>
+  <si>
+    <t>错误用户名</t>
+  </si>
+  <si>
+    <t>{"UserName":"t","Password":"8196658ecaeceb870d0ad3053dd579d2"}</t>
+  </si>
+  <si>
+    <t>{"Status": false,"Info":"账号或密码错误"}</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>密码相关,检查用户是否设置资金密码</t>
+  </si>
+  <si>
+    <t>Api_User_IsSetWithDrawlPwd_Case.py</t>
+  </si>
+  <si>
+    <t>检查用户是否设置资金密码</t>
+  </si>
+  <si>
+    <t>{"Status":true,"Code":0}</t>
+  </si>
+  <si>
+    <t>密码相关-否设置过资金密码</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>密码相关,设置资金密码，原密码正确</t>
+  </si>
+  <si>
+    <t>Api_User_UpdateWithdrawalPwd_Case.py</t>
+  </si>
+  <si>
+    <t>修改资金密码成功</t>
+  </si>
+  <si>
+    <t>{"OldPwd":"aaaa22","OkPwd":"aaaa11","NewPwd":"aaaa11"}</t>
+  </si>
+  <si>
+    <t>{"Status":true,"Info":"修改成功","Data":null,"Code":0}</t>
+  </si>
+  <si>
+    <t>密码相关-设置资金密码</t>
+  </si>
+  <si>
     <t>测试环境</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>用户登录,错误用户名</t>
-  </si>
-  <si>
-    <t>错误用户名</t>
-  </si>
-  <si>
-    <t>{"UserName":"t","Password":"8196658ecaeceb870d0ad3053dd579d2"}</t>
-  </si>
-  <si>
-    <t>{"Status": false,"Info":"账号或密码错误"}</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>密码相关,检查用户是否设置资金密码</t>
-  </si>
-  <si>
-    <t>Api_User_IsSetWithDrawlPwd_Case.py</t>
-  </si>
-  <si>
-    <t>检查用户是否设置资金密码</t>
-  </si>
-  <si>
-    <t>{"Status":true,"Code":0}</t>
-  </si>
-  <si>
-    <t>密码相关-否设置过资金密码</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>A004</t>
-  </si>
-  <si>
-    <t>密码相关,设置资金密码，原密码正确</t>
-  </si>
-  <si>
-    <t>Api_User_UpdateWithdrawalPwd_Case.py</t>
-  </si>
-  <si>
-    <t>修改资金密码成功</t>
-  </si>
-  <si>
-    <t>{"OldPwd":"aaaa22","OkPwd":"aaaa11","NewPwd":"aaaa11"}</t>
-  </si>
-  <si>
-    <t>{"Status":true,"Info":"修改成功","Data":null,"Code":0}</t>
-  </si>
-  <si>
-    <t>密码相关-设置资金密码</t>
   </si>
   <si>
     <t>A005</t>
@@ -1419,192 +719,192 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <i/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,13 +916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,7 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,13 +952,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,55 +1042,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,55 +1072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,21 +1102,30 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1848,17 +1157,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1877,209 +1195,192 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2133,12 +1434,357 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>d-01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例编号</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例名称</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+运行脚本文件名</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+前置条件</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+是否需要登录</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+描述信息</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+预期结果</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例关联接口</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+是否执行</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+实际结果</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>d-01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例编号</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例名称</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+运行脚本文件名</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+前置条件</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+是否需要登录</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+描述信息</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+预期结果</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例关联接口</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+是否执行</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+实际结果</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>d-01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例编号</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例名称</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+运行脚本文件名</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+前置条件</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+是否需要登录</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+描述信息</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+预期结果</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例关联接口</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+是否执行</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+实际结果</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>d-01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例编号</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例名称</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+运行脚本文件名</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+前置条件</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+是否需要登录</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+描述信息</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+预期结果</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例关联接口</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+是否执行</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+实际结果</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>d-01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例编号</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例名称</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+运行脚本文件名</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+前置条件</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+是否需要登录</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+描述信息</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+预期结果</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+用例关联接口</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+是否执行</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <t>d-01:
+实际结果</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2426,32 +2072,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="75.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="40.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25.375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5" customWidth="1"/>
+    <col width="9" customWidth="1" style="5" min="1" max="1"/>
+    <col width="34.375" customWidth="1" style="5" min="2" max="2"/>
+    <col width="47.5" customWidth="1" style="5" min="3" max="3"/>
+    <col width="12.5" customWidth="1" style="5" min="4" max="4"/>
+    <col width="11.25" customWidth="1" style="5" min="5" max="5"/>
+    <col width="24.75" customWidth="1" style="5" min="6" max="6"/>
+    <col width="75.25" customWidth="1" style="5" min="7" max="7"/>
+    <col width="40.125" customWidth="1" style="5" min="8" max="8"/>
+    <col width="25.375" customWidth="1" style="5" min="9" max="9"/>
+    <col width="11.375" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.875" customWidth="1" style="5" min="11" max="11"/>
+    <col width="11.625" customWidth="1" style="5" min="12" max="12"/>
+    <col width="9" customWidth="1" style="5" min="13" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="24" customHeight="1" s="12">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -2515,21 +2164,21 @@
         <v>19</v>
       </c>
       <c r="J2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>14</v>
@@ -2538,92 +2187,92 @@
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" t="s">
         <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="33" customHeight="1" s="12">
+      <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="33" customHeight="1" spans="1:12">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2634,7 +2283,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>15</v>
@@ -2649,19 +2298,19 @@
         <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:12">
+    </row>
+    <row r="7" spans="1:12" ht="33" customHeight="1" s="12">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -2678,25 +2327,25 @@
         <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:12">
+    </row>
+    <row r="8" spans="1:12" ht="33" customHeight="1" s="12">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -2722,13 +2371,13 @@
         <v>51</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" t="s">
         <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2757,13 +2406,13 @@
         <v>61</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
         <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2792,16 +2441,16 @@
         <v>68</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" customFormat="1" s="5">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -2827,16 +2476,16 @@
         <v>68</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
         <v>21</v>
       </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:12">
+    </row>
+    <row r="12" spans="1:12" ht="33" customHeight="1" s="12">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -2847,7 +2496,7 @@
         <v>76</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>77</v>
@@ -2862,13 +2511,13 @@
         <v>75</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2897,57 +2546,59 @@
         <v>81</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 J12 E13 J13 J2:J11">
+    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 J2:J13" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K12 K13 K2:K11">
+    <dataValidation sqref="K12 K13 K2:K11" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="35.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22" style="8" customWidth="1"/>
-    <col min="7" max="7" width="127.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="39.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="32.125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="9" customWidth="1"/>
+    <col width="8.125" customWidth="1" style="8" min="1" max="1"/>
+    <col width="35.75" customWidth="1" style="3" min="2" max="2"/>
+    <col width="39.75" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.75" customWidth="1" style="8" min="4" max="4"/>
+    <col width="11.5" customWidth="1" style="8" min="5" max="5"/>
+    <col width="22" customWidth="1" style="8" min="6" max="6"/>
+    <col width="127.625" customWidth="1" style="8" min="7" max="7"/>
+    <col width="39.875" customWidth="1" style="8" min="8" max="8"/>
+    <col width="32.125" customWidth="1" style="8" min="9" max="9"/>
+    <col width="9.875" customWidth="1" style="8" min="10" max="10"/>
+    <col width="10.625" customWidth="1" style="8" min="11" max="11"/>
+    <col width="9" customWidth="1" style="9" min="12" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2985,7 +2636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:11">
+    <row r="2" spans="1:12" customFormat="1" s="5">
       <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
@@ -2996,7 +2647,7 @@
         <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>89</v>
@@ -3011,13 +2662,13 @@
         <v>92</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" s="12">
       <c r="A3" s="5" t="s">
         <v>93</v>
       </c>
@@ -3043,16 +2694,16 @@
         <v>98</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>99</v>
       </c>
@@ -3078,13 +2729,13 @@
         <v>103</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
@@ -3110,13 +2761,13 @@
         <v>109</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
         <v>110</v>
       </c>
@@ -3142,10 +2793,10 @@
         <v>115</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3173,55 +2824,57 @@
       <c r="I7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 J7 J2:J6">
+    <dataValidation sqref="E2 E3 E4 E5 E6 E7 J2:J7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K7 K2:K4 K5:K6">
+    <dataValidation sqref="K7 K2:K4 K5:K6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="68.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5" customWidth="1"/>
+    <col width="9" customWidth="1" style="5" min="1" max="1"/>
+    <col width="17.125" customWidth="1" style="5" min="2" max="2"/>
+    <col width="41.625" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.5" customWidth="1" style="5" min="4" max="4"/>
+    <col width="11.875" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.75" customWidth="1" style="5" min="6" max="6"/>
+    <col width="68.625" customWidth="1" style="5" min="7" max="7"/>
+    <col width="41.25" customWidth="1" style="5" min="8" max="8"/>
+    <col width="21.375" customWidth="1" style="5" min="9" max="9"/>
+    <col width="9" customWidth="1" style="5" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3259,7 +2912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:12">
+    <row r="2" spans="1:12" customFormat="1" s="5">
       <c r="A2" s="5" t="s">
         <v>122</v>
       </c>
@@ -3269,14 +2922,14 @@
       <c r="C2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="s">
         <v>125</v>
       </c>
@@ -3284,13 +2937,13 @@
         <v>126</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3316,16 +2969,16 @@
         <v>131</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="33" customHeight="1" s="12">
       <c r="A4" s="5" t="s">
         <v>132</v>
       </c>
@@ -3351,13 +3004,13 @@
         <v>136</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3380,60 +3033,62 @@
         <v>140</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 E3 J3 E4 J4 E5 J5">
+    <dataValidation sqref="E2 E3 E4 E5 J2:J5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4 K5">
+    <dataValidation sqref="K2 K3 K4 K5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="44" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="88" style="5" customWidth="1"/>
-    <col min="8" max="8" width="52.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5" customWidth="1"/>
+    <col width="9" customWidth="1" style="5" min="1" max="1"/>
+    <col width="22.625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="44" customWidth="1" style="5" min="3" max="3"/>
+    <col width="11.625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.375" customWidth="1" style="5" min="5" max="5"/>
+    <col width="27.25" customWidth="1" style="5" min="6" max="6"/>
+    <col width="88" customWidth="1" style="5" min="7" max="7"/>
+    <col width="52.375" customWidth="1" style="5" min="8" max="8"/>
+    <col width="27.375" customWidth="1" style="5" min="9" max="9"/>
+    <col width="9" customWidth="1" style="5" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3494,13 +3149,13 @@
         <v>145</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3526,19 +3181,19 @@
         <v>150</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>151</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3558,19 +3213,19 @@
         <v>153</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>155</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3602,13 +3257,13 @@
         <v>160</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3640,13 +3295,13 @@
         <v>165</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3678,13 +3333,13 @@
         <v>165</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3713,16 +3368,16 @@
         <v>174</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="48" customHeight="1" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48" customHeight="1" s="12">
       <c r="A9" s="5" t="s">
         <v>175</v>
       </c>
@@ -3751,16 +3406,16 @@
         <v>180</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="33" customHeight="1" s="12">
       <c r="A10" s="5" t="s">
         <v>181</v>
       </c>
@@ -3786,16 +3441,16 @@
         <v>185</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" ht="66" customHeight="1" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="66" customHeight="1" s="12">
       <c r="A11" s="5" t="s">
         <v>186</v>
       </c>
@@ -3824,16 +3479,16 @@
         <v>192</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="66" customHeight="1" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="66" customHeight="1" s="12">
       <c r="A12" s="5" t="s">
         <v>193</v>
       </c>
@@ -3862,16 +3517,16 @@
         <v>192</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="66" customHeight="1" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="66" customHeight="1" s="12">
       <c r="A13" s="5" t="s">
         <v>198</v>
       </c>
@@ -3900,13 +3555,13 @@
         <v>192</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3932,13 +3587,13 @@
         <v>205</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3964,13 +3619,13 @@
         <v>210</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3999,54 +3654,56 @@
         <v>216</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 E3 J3 E4 J4 E5 J5 E6 J6 E7 J7 E8 J8 E9 J9 E10 J10 E11 J11 E12 J12 E13 J13 E14 J14 E15 J15 E16 J16">
+    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 J2:J16" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16">
+    <dataValidation sqref="K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="83" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2" customWidth="1"/>
+    <col width="9" customWidth="1" style="2" min="1" max="1"/>
+    <col width="29.125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="31.5" customWidth="1" style="2" min="3" max="3"/>
+    <col width="13.625" customWidth="1" style="2" min="4" max="4"/>
+    <col width="12.5" customWidth="1" style="2" min="5" max="5"/>
+    <col width="14.75" customWidth="1" style="2" min="6" max="6"/>
+    <col width="83" customWidth="1" style="2" min="7" max="7"/>
+    <col width="35.25" customWidth="1" style="2" min="8" max="8"/>
+    <col width="21.625" customWidth="1" style="2" min="9" max="9"/>
+    <col width="9" customWidth="1" style="2" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4084,7 +3741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:11">
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" s="12">
       <c r="A2" s="2" t="s">
         <v>217</v>
       </c>
@@ -4095,7 +3752,7 @@
         <v>219</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>220</v>
@@ -4110,13 +3767,13 @@
         <v>223</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="27" customHeight="1" s="12">
       <c r="A3" s="2" t="s">
         <v>224</v>
       </c>
@@ -4142,23 +3799,22 @@
         <v>230</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2 J2 E3 J3 K3">
+    <dataValidation sqref="E2 J2 E3 J3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation sqref="K2 K3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/LX_API_TEST/Data/Case_data.xlsx
+++ b/LX_API_TEST/Data/Case_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24225" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24225" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" state="visible" r:id="rId1"/>
@@ -101,6 +101,9 @@
     <t>{"Status": false,"Info":"账号或密码错误"}</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>A003</t>
   </si>
   <si>
@@ -117,9 +120,6 @@
   </si>
   <si>
     <t>密码相关-否设置过资金密码</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>A004</t>
@@ -747,9 +747,62 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -764,21 +817,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -786,22 +824,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,24 +841,29 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -847,22 +877,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -873,20 +887,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,6 +904,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -916,7 +964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,13 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,13 +1000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,79 +1018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,13 +1042,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,6 +1098,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1107,11 +1131,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,41 +1187,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,10 +1203,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -1215,16 +1215,16 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
@@ -1233,115 +1233,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2079,8 +2079,8 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I20 I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
@@ -2199,7 +2199,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>20</v>
@@ -2210,28 +2210,28 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>20</v>
@@ -2266,7 +2266,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>41</v>
@@ -2301,7 +2301,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>41</v>
@@ -2336,7 +2336,7 @@
         <v>51</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>41</v>
@@ -2371,7 +2371,7 @@
         <v>51</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>41</v>
@@ -2406,10 +2406,10 @@
         <v>61</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
         <v>21</v>
@@ -2441,7 +2441,7 @@
         <v>68</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>20</v>
@@ -2476,7 +2476,7 @@
         <v>68</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>41</v>
@@ -2496,7 +2496,7 @@
         <v>76</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>77</v>
@@ -2511,7 +2511,7 @@
         <v>75</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>20</v>
@@ -2546,7 +2546,7 @@
         <v>81</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>20</v>
@@ -2557,7 +2557,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 J2:J13" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2 J2 E3 J3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 J4:J13" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation sqref="K12 K13 K2:K11" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
@@ -2647,7 +2647,7 @@
         <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>89</v>
@@ -2662,7 +2662,7 @@
         <v>92</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>41</v>
@@ -2694,7 +2694,7 @@
         <v>98</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>20</v>
@@ -2729,7 +2729,7 @@
         <v>103</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>41</v>
@@ -2761,7 +2761,7 @@
         <v>109</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>41</v>
@@ -2793,7 +2793,7 @@
         <v>115</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>41</v>
@@ -2825,7 +2825,7 @@
         <v>121</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -2937,7 +2937,7 @@
         <v>126</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -2969,7 +2969,7 @@
         <v>131</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -3004,7 +3004,7 @@
         <v>136</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -3033,13 +3033,13 @@
         <v>140</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -3149,7 +3149,7 @@
         <v>145</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -3181,13 +3181,13 @@
         <v>150</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>151</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -3213,13 +3213,13 @@
         <v>153</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>155</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -3257,7 +3257,7 @@
         <v>160</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -3295,7 +3295,7 @@
         <v>165</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -3333,7 +3333,7 @@
         <v>165</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -3368,7 +3368,7 @@
         <v>174</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>20</v>
@@ -3406,7 +3406,7 @@
         <v>180</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>20</v>
@@ -3441,7 +3441,7 @@
         <v>185</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>20</v>
@@ -3479,7 +3479,7 @@
         <v>192</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>20</v>
@@ -3517,7 +3517,7 @@
         <v>192</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>20</v>
@@ -3555,7 +3555,7 @@
         <v>192</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>20</v>
@@ -3587,7 +3587,7 @@
         <v>205</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>20</v>
@@ -3619,7 +3619,7 @@
         <v>210</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>20</v>
@@ -3654,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>20</v>
@@ -3685,8 +3685,8 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -3752,7 +3752,7 @@
         <v>219</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>220</v>
@@ -3767,7 +3767,7 @@
         <v>223</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>41</v>
@@ -3799,7 +3799,7 @@
         <v>230</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>41</v>
